--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-30.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="768">
   <si>
     <t>League</t>
   </si>
@@ -2318,36 +2318,6 @@
   </si>
   <si>
     <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>33149935</t>
-  </si>
-  <si>
-    <t>33150438</t>
-  </si>
-  <si>
-    <t>1.226855403</t>
-  </si>
-  <si>
-    <t>1.226858784</t>
-  </si>
-  <si>
-    <t>1.226855448</t>
-  </si>
-  <si>
-    <t>1.226858829</t>
-  </si>
-  <si>
-    <t>1.226855487</t>
-  </si>
-  <si>
-    <t>1.226858868</t>
-  </si>
-  <si>
-    <t>1.226855412</t>
-  </si>
-  <si>
-    <t>1.226858793</t>
   </si>
 </sst>
 </file>
@@ -24750,8 +24720,8 @@
       <c r="BE112">
         <v>1000</v>
       </c>
-      <c r="BF112" t="s">
-        <v>768</v>
+      <c r="BF112">
+        <v>33149935</v>
       </c>
       <c r="BG112">
         <v>5412351</v>
@@ -24762,17 +24732,17 @@
       <c r="BI112">
         <v>58805</v>
       </c>
-      <c r="BJ112" t="s">
-        <v>770</v>
-      </c>
-      <c r="BK112" t="s">
-        <v>772</v>
-      </c>
-      <c r="BL112" t="s">
-        <v>774</v>
-      </c>
-      <c r="BM112" t="s">
-        <v>776</v>
+      <c r="BJ112">
+        <v>1.226855403</v>
+      </c>
+      <c r="BK112">
+        <v>1.226855448</v>
+      </c>
+      <c r="BL112">
+        <v>1.226855487</v>
+      </c>
+      <c r="BM112">
+        <v>1.226855412</v>
       </c>
     </row>
     <row r="113" spans="1:65">
@@ -55721,157 +55691,157 @@
         <v>746</v>
       </c>
       <c r="F270">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G270">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H270">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="I270">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="J270">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K270">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L270">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="M270">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="N270">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="O270">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="P270">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Q270">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="S270">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="T270">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U270">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V270">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="W270">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="X270">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y270">
         <v>10.5</v>
       </c>
       <c r="Z270">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA270">
+        <v>24</v>
+      </c>
+      <c r="AB270">
+        <v>14</v>
+      </c>
+      <c r="AC270">
+        <v>1000</v>
+      </c>
+      <c r="AD270">
+        <v>7.4</v>
+      </c>
+      <c r="AE270">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF270">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG270">
+        <v>10.5</v>
+      </c>
+      <c r="AH270">
+        <v>17</v>
+      </c>
+      <c r="AI270">
+        <v>21</v>
+      </c>
+      <c r="AJ270">
+        <v>2.3</v>
+      </c>
+      <c r="AK270">
+        <v>42</v>
+      </c>
+      <c r="AL270">
+        <v>17.5</v>
+      </c>
+      <c r="AM270">
+        <v>1000</v>
+      </c>
+      <c r="AN270">
         <v>18</v>
       </c>
-      <c r="AB270">
-        <v>16.5</v>
-      </c>
-      <c r="AC270">
-        <v>22</v>
-      </c>
-      <c r="AD270">
-        <v>5.4</v>
-      </c>
-      <c r="AE270">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF270">
-        <v>9</v>
-      </c>
-      <c r="AG270">
-        <v>10</v>
-      </c>
-      <c r="AH270">
-        <v>15.5</v>
-      </c>
-      <c r="AI270">
-        <v>18.5</v>
-      </c>
-      <c r="AJ270">
+      <c r="AO270">
+        <v>1000</v>
+      </c>
+      <c r="AP270">
         <v>29</v>
       </c>
-      <c r="AK270">
-        <v>50</v>
-      </c>
-      <c r="AL270">
-        <v>18</v>
-      </c>
-      <c r="AM270">
-        <v>25</v>
-      </c>
-      <c r="AN270">
-        <v>7.8</v>
-      </c>
-      <c r="AO270">
-        <v>28</v>
-      </c>
-      <c r="AP270">
-        <v>9.4</v>
-      </c>
       <c r="AQ270">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AR270">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="AS270">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AT270">
-        <v>9.6</v>
+        <v>44</v>
       </c>
       <c r="AU270">
         <v>85</v>
       </c>
       <c r="AV270">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="AW270">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AX270">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AY270">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AZ270">
-        <v>9.800000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="BA270">
         <v>110</v>
       </c>
       <c r="BB270">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BC270">
         <v>55</v>
       </c>
       <c r="BD270">
-        <v>5.1</v>
+        <v>2.42</v>
       </c>
       <c r="BE270">
         <v>1000</v>
@@ -55918,139 +55888,139 @@
         <v>747</v>
       </c>
       <c r="F271">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="G271">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H271">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I271">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="J271">
+        <v>3.5</v>
+      </c>
+      <c r="K271">
+        <v>3.9</v>
+      </c>
+      <c r="L271">
+        <v>1.57</v>
+      </c>
+      <c r="M271">
+        <v>1.73</v>
+      </c>
+      <c r="N271">
+        <v>2.38</v>
+      </c>
+      <c r="O271">
+        <v>2.76</v>
+      </c>
+      <c r="P271">
+        <v>2.26</v>
+      </c>
+      <c r="Q271">
         <v>3.45</v>
       </c>
-      <c r="K271">
-        <v>4</v>
-      </c>
-      <c r="L271">
+      <c r="R271">
         <v>1.59</v>
       </c>
-      <c r="M271">
-        <v>1.77</v>
-      </c>
-      <c r="N271">
-        <v>2.3</v>
-      </c>
-      <c r="O271">
-        <v>2.7</v>
-      </c>
-      <c r="P271">
-        <v>2.22</v>
-      </c>
-      <c r="Q271">
-        <v>2.68</v>
-      </c>
-      <c r="R271">
-        <v>1.6</v>
-      </c>
       <c r="S271">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T271">
         <v>8.199999999999999</v>
       </c>
       <c r="U271">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V271">
         <v>13.5</v>
       </c>
       <c r="W271">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="X271">
-        <v>42</v>
+        <v>1.34</v>
       </c>
       <c r="Y271">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z271">
-        <v>190</v>
+        <v>1.34</v>
       </c>
       <c r="AA271">
         <v>1000</v>
       </c>
       <c r="AB271">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AC271">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD271">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE271">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AF271">
-        <v>23</v>
+        <v>1.34</v>
       </c>
       <c r="AG271">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH271">
-        <v>110</v>
+        <v>1.34</v>
       </c>
       <c r="AI271">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ271">
-        <v>6.8</v>
+        <v>1.07</v>
       </c>
       <c r="AK271">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AL271">
-        <v>8.800000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AM271">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN271">
-        <v>25</v>
+        <v>1.34</v>
       </c>
       <c r="AO271">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AP271">
-        <v>120</v>
+        <v>1.34</v>
       </c>
       <c r="AQ271">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AR271">
         <v>13.5</v>
       </c>
       <c r="AS271">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AT271">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="AU271">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AV271">
-        <v>46</v>
+        <v>1.34</v>
       </c>
       <c r="AW271">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AX271">
-        <v>26</v>
+        <v>1.4</v>
       </c>
       <c r="AY271">
         <v>1000</v>
@@ -56059,7 +56029,7 @@
         <v>1.55</v>
       </c>
       <c r="BA271">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="BB271">
         <v>1.55</v>
@@ -56068,7 +56038,7 @@
         <v>1000</v>
       </c>
       <c r="BD271">
-        <v>15</v>
+        <v>1.07</v>
       </c>
       <c r="BE271">
         <v>1000</v>
@@ -56115,103 +56085,103 @@
         <v>748</v>
       </c>
       <c r="F272">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G272">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="H272">
+        <v>4</v>
+      </c>
+      <c r="I272">
+        <v>4.1</v>
+      </c>
+      <c r="J272">
         <v>3.75</v>
       </c>
-      <c r="I272">
-        <v>3.9</v>
-      </c>
-      <c r="J272">
-        <v>3.65</v>
-      </c>
       <c r="K272">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L272">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M272">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="N272">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="O272">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="P272">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q272">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R272">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="S272">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T272">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U272">
+        <v>16.5</v>
+      </c>
+      <c r="V272">
+        <v>16</v>
+      </c>
+      <c r="W272">
+        <v>17.5</v>
+      </c>
+      <c r="X272">
+        <v>27</v>
+      </c>
+      <c r="Y272">
+        <v>30</v>
+      </c>
+      <c r="Z272">
+        <v>65</v>
+      </c>
+      <c r="AA272">
+        <v>75</v>
+      </c>
+      <c r="AB272">
+        <v>9.6</v>
+      </c>
+      <c r="AC272">
+        <v>11</v>
+      </c>
+      <c r="AD272">
+        <v>7.8</v>
+      </c>
+      <c r="AE272">
+        <v>8.6</v>
+      </c>
+      <c r="AF272">
         <v>15</v>
       </c>
-      <c r="V272">
-        <v>14</v>
-      </c>
-      <c r="W272">
-        <v>15</v>
-      </c>
-      <c r="X272">
-        <v>24</v>
-      </c>
-      <c r="Y272">
-        <v>27</v>
-      </c>
-      <c r="Z272">
-        <v>50</v>
-      </c>
-      <c r="AA272">
-        <v>70</v>
-      </c>
-      <c r="AB272">
-        <v>9.4</v>
-      </c>
-      <c r="AC272">
-        <v>10.5</v>
-      </c>
-      <c r="AD272">
-        <v>7.6</v>
-      </c>
-      <c r="AE272">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF272">
-        <v>14</v>
-      </c>
       <c r="AG272">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH272">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI272">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ272">
         <v>12</v>
       </c>
       <c r="AK272">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL272">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM272">
         <v>10.5</v>
@@ -56220,52 +56190,52 @@
         <v>15.5</v>
       </c>
       <c r="AO272">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP272">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AQ272">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR272">
+        <v>23</v>
+      </c>
+      <c r="AS272">
         <v>24</v>
       </c>
-      <c r="AS272">
-        <v>26</v>
-      </c>
       <c r="AT272">
+        <v>18.5</v>
+      </c>
+      <c r="AU272">
         <v>19.5</v>
       </c>
-      <c r="AU272">
-        <v>22</v>
-      </c>
       <c r="AV272">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW272">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AX272">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AY272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AZ272">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BA272">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BB272">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BC272">
         <v>40</v>
       </c>
       <c r="BD272">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BE272">
         <v>980</v>
@@ -56312,100 +56282,100 @@
         <v>749</v>
       </c>
       <c r="F273">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G273">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H273">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I273">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J273">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K273">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L273">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="M273">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="N273">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="O273">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P273">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q273">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="R273">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="S273">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="T273">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="U273">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V273">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="W273">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X273">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y273">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Z273">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="AA273">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB273">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC273">
+        <v>11.5</v>
+      </c>
+      <c r="AD273">
+        <v>8.6</v>
+      </c>
+      <c r="AE273">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF273">
+        <v>16</v>
+      </c>
+      <c r="AG273">
+        <v>17.5</v>
+      </c>
+      <c r="AH273">
+        <v>42</v>
+      </c>
+      <c r="AI273">
+        <v>48</v>
+      </c>
+      <c r="AJ273">
         <v>11</v>
       </c>
-      <c r="AD273">
-        <v>8.4</v>
-      </c>
-      <c r="AE273">
-        <v>9.6</v>
-      </c>
-      <c r="AF273">
-        <v>16.5</v>
-      </c>
-      <c r="AG273">
-        <v>19</v>
-      </c>
-      <c r="AH273">
-        <v>32</v>
-      </c>
-      <c r="AI273">
-        <v>65</v>
-      </c>
-      <c r="AJ273">
-        <v>10.5</v>
-      </c>
       <c r="AK273">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL273">
         <v>9.199999999999999</v>
@@ -56414,55 +56384,55 @@
         <v>10.5</v>
       </c>
       <c r="AN273">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO273">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AP273">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ273">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AR273">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AS273">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AT273">
         <v>15.5</v>
       </c>
       <c r="AU273">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV273">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW273">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AX273">
         <v>48</v>
       </c>
       <c r="AY273">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AZ273">
         <v>8.199999999999999</v>
       </c>
       <c r="BA273">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BB273">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BC273">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="BD273">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="BE273">
         <v>980</v>
@@ -56509,157 +56479,157 @@
         <v>750</v>
       </c>
       <c r="F274">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="G274">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="H274">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="I274">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="J274">
         <v>3.35</v>
       </c>
       <c r="K274">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L274">
         <v>1.83</v>
       </c>
       <c r="M274">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N274">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="O274">
         <v>2.22</v>
       </c>
       <c r="P274">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q274">
+        <v>1.97</v>
+      </c>
+      <c r="R274">
         <v>2.04</v>
       </c>
-      <c r="R274">
-        <v>1.96</v>
-      </c>
       <c r="S274">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="T274">
+        <v>10.5</v>
+      </c>
+      <c r="U274">
+        <v>12</v>
+      </c>
+      <c r="V274">
+        <v>10</v>
+      </c>
+      <c r="W274">
+        <v>11.5</v>
+      </c>
+      <c r="X274">
+        <v>17</v>
+      </c>
+      <c r="Y274">
+        <v>20</v>
+      </c>
+      <c r="Z274">
+        <v>34</v>
+      </c>
+      <c r="AA274">
+        <v>50</v>
+      </c>
+      <c r="AB274">
+        <v>9.6</v>
+      </c>
+      <c r="AC274">
+        <v>10</v>
+      </c>
+      <c r="AD274">
+        <v>7</v>
+      </c>
+      <c r="AE274">
+        <v>7.4</v>
+      </c>
+      <c r="AF274">
+        <v>12</v>
+      </c>
+      <c r="AG274">
+        <v>13.5</v>
+      </c>
+      <c r="AH274">
+        <v>30</v>
+      </c>
+      <c r="AI274">
+        <v>36</v>
+      </c>
+      <c r="AJ274">
+        <v>15</v>
+      </c>
+      <c r="AK274">
+        <v>16.5</v>
+      </c>
+      <c r="AL274">
         <v>11</v>
       </c>
-      <c r="U274">
-        <v>15</v>
-      </c>
-      <c r="V274">
-        <v>9.4</v>
-      </c>
-      <c r="W274">
-        <v>13</v>
-      </c>
-      <c r="X274">
-        <v>14.5</v>
-      </c>
-      <c r="Y274">
-        <v>21</v>
-      </c>
-      <c r="Z274">
-        <v>23</v>
-      </c>
-      <c r="AA274">
-        <v>48</v>
-      </c>
-      <c r="AB274">
-        <v>10</v>
-      </c>
-      <c r="AC274">
-        <v>13.5</v>
-      </c>
-      <c r="AD274">
-        <v>6.8</v>
-      </c>
-      <c r="AE274">
-        <v>8.6</v>
-      </c>
-      <c r="AF274">
-        <v>11</v>
-      </c>
-      <c r="AG274">
-        <v>15</v>
-      </c>
-      <c r="AH274">
-        <v>19.5</v>
-      </c>
-      <c r="AI274">
+      <c r="AM274">
+        <v>12</v>
+      </c>
+      <c r="AN274">
+        <v>16.5</v>
+      </c>
+      <c r="AO274">
+        <v>18</v>
+      </c>
+      <c r="AP274">
         <v>38</v>
       </c>
-      <c r="AJ274">
-        <v>15.5</v>
-      </c>
-      <c r="AK274">
-        <v>23</v>
-      </c>
-      <c r="AL274">
-        <v>12</v>
-      </c>
-      <c r="AM274">
-        <v>16</v>
-      </c>
-      <c r="AN274">
-        <v>16</v>
-      </c>
-      <c r="AO274">
-        <v>23</v>
-      </c>
-      <c r="AP274">
-        <v>26</v>
-      </c>
       <c r="AQ274">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR274">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AS274">
         <v>55</v>
       </c>
       <c r="AT274">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AU274">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AV274">
+        <v>40</v>
+      </c>
+      <c r="AW274">
+        <v>46</v>
+      </c>
+      <c r="AX274">
+        <v>90</v>
+      </c>
+      <c r="AY274">
+        <v>110</v>
+      </c>
+      <c r="AZ274">
+        <v>25</v>
+      </c>
+      <c r="BA274">
         <v>27</v>
       </c>
-      <c r="AW274">
-        <v>60</v>
-      </c>
-      <c r="AX274">
-        <v>4.5</v>
-      </c>
-      <c r="AY274">
-        <v>140</v>
-      </c>
-      <c r="AZ274">
+      <c r="BB274">
+        <v>26</v>
+      </c>
+      <c r="BC274">
+        <v>36</v>
+      </c>
+      <c r="BD274">
         <v>19</v>
-      </c>
-      <c r="BA274">
-        <v>38</v>
-      </c>
-      <c r="BB274">
-        <v>18</v>
-      </c>
-      <c r="BC274">
-        <v>32</v>
-      </c>
-      <c r="BD274">
-        <v>4.6</v>
       </c>
       <c r="BE274">
         <v>1000</v>
@@ -56706,157 +56676,157 @@
         <v>751</v>
       </c>
       <c r="F275">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G275">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H275">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I275">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J275">
         <v>3.35</v>
       </c>
       <c r="K275">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L275">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="M275">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N275">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="O275">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="P275">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="Q275">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R275">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="S275">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="T275">
         <v>10.5</v>
       </c>
       <c r="U275">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="V275">
         <v>11</v>
       </c>
       <c r="W275">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X275">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y275">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z275">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AA275">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB275">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC275">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD275">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE275">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF275">
         <v>13.5</v>
       </c>
       <c r="AG275">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH275">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AI275">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ275">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK275">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL275">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM275">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN275">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO275">
+        <v>19.5</v>
+      </c>
+      <c r="AP275">
+        <v>48</v>
+      </c>
+      <c r="AQ275">
+        <v>60</v>
+      </c>
+      <c r="AR275">
+        <v>28</v>
+      </c>
+      <c r="AS275">
+        <v>32</v>
+      </c>
+      <c r="AT275">
+        <v>25</v>
+      </c>
+      <c r="AU275">
+        <v>27</v>
+      </c>
+      <c r="AV275">
+        <v>38</v>
+      </c>
+      <c r="AW275">
+        <v>44</v>
+      </c>
+      <c r="AX275">
+        <v>95</v>
+      </c>
+      <c r="AY275">
+        <v>120</v>
+      </c>
+      <c r="AZ275">
+        <v>20</v>
+      </c>
+      <c r="BA275">
         <v>22</v>
       </c>
-      <c r="AP275">
-        <v>29</v>
-      </c>
-      <c r="AQ275">
-        <v>75</v>
-      </c>
-      <c r="AR275">
-        <v>26</v>
-      </c>
-      <c r="AS275">
-        <v>34</v>
-      </c>
-      <c r="AT275">
-        <v>22</v>
-      </c>
-      <c r="AU275">
-        <v>32</v>
-      </c>
-      <c r="AV275">
-        <v>26</v>
-      </c>
-      <c r="AW275">
-        <v>55</v>
-      </c>
-      <c r="AX275">
-        <v>5.5</v>
-      </c>
-      <c r="AY275">
-        <v>150</v>
-      </c>
-      <c r="AZ275">
-        <v>15.5</v>
-      </c>
-      <c r="BA275">
-        <v>24</v>
-      </c>
       <c r="BB275">
-        <v>5.2</v>
+        <v>38</v>
       </c>
       <c r="BC275">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="BD275">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="BE275">
         <v>1000</v>
@@ -56903,157 +56873,157 @@
         <v>752</v>
       </c>
       <c r="F276">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="G276">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="H276">
+        <v>3.2</v>
+      </c>
+      <c r="I276">
+        <v>3.3</v>
+      </c>
+      <c r="J276">
         <v>3.35</v>
       </c>
-      <c r="I276">
-        <v>3.5</v>
-      </c>
-      <c r="J276">
+      <c r="K276">
         <v>3.4</v>
-      </c>
-      <c r="K276">
-        <v>3.6</v>
       </c>
       <c r="L276">
         <v>1.83</v>
       </c>
       <c r="M276">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N276">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="O276">
         <v>2.22</v>
       </c>
       <c r="P276">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q276">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R276">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S276">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T276">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U276">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="V276">
         <v>11</v>
       </c>
       <c r="W276">
+        <v>12.5</v>
+      </c>
+      <c r="X276">
+        <v>18.5</v>
+      </c>
+      <c r="Y276">
+        <v>21</v>
+      </c>
+      <c r="Z276">
+        <v>46</v>
+      </c>
+      <c r="AA276">
+        <v>55</v>
+      </c>
+      <c r="AB276">
+        <v>9</v>
+      </c>
+      <c r="AC276">
+        <v>10</v>
+      </c>
+      <c r="AD276">
+        <v>7</v>
+      </c>
+      <c r="AE276">
+        <v>7.4</v>
+      </c>
+      <c r="AF276">
+        <v>12.5</v>
+      </c>
+      <c r="AG276">
         <v>14</v>
       </c>
-      <c r="X276">
-        <v>20</v>
-      </c>
-      <c r="Y276">
+      <c r="AH276">
+        <v>32</v>
+      </c>
+      <c r="AI276">
+        <v>38</v>
+      </c>
+      <c r="AJ276">
+        <v>14</v>
+      </c>
+      <c r="AK276">
+        <v>17</v>
+      </c>
+      <c r="AL276">
+        <v>10.5</v>
+      </c>
+      <c r="AM276">
+        <v>11.5</v>
+      </c>
+      <c r="AN276">
+        <v>17</v>
+      </c>
+      <c r="AO276">
+        <v>19</v>
+      </c>
+      <c r="AP276">
+        <v>46</v>
+      </c>
+      <c r="AQ276">
+        <v>55</v>
+      </c>
+      <c r="AR276">
+        <v>32</v>
+      </c>
+      <c r="AS276">
+        <v>36</v>
+      </c>
+      <c r="AT276">
         <v>27</v>
-      </c>
-      <c r="Z276">
-        <v>6.4</v>
-      </c>
-      <c r="AA276">
-        <v>75</v>
-      </c>
-      <c r="AB276">
-        <v>8.6</v>
-      </c>
-      <c r="AC276">
-        <v>10.5</v>
-      </c>
-      <c r="AD276">
-        <v>7.2</v>
-      </c>
-      <c r="AE276">
-        <v>8.6</v>
-      </c>
-      <c r="AF276">
-        <v>13.5</v>
-      </c>
-      <c r="AG276">
-        <v>16.5</v>
-      </c>
-      <c r="AH276">
-        <v>24</v>
-      </c>
-      <c r="AI276">
-        <v>48</v>
-      </c>
-      <c r="AJ276">
-        <v>12.5</v>
-      </c>
-      <c r="AK276">
-        <v>15.5</v>
-      </c>
-      <c r="AL276">
-        <v>10</v>
-      </c>
-      <c r="AM276">
-        <v>12.5</v>
-      </c>
-      <c r="AN276">
-        <v>16.5</v>
-      </c>
-      <c r="AO276">
-        <v>21</v>
-      </c>
-      <c r="AP276">
-        <v>40</v>
-      </c>
-      <c r="AQ276">
-        <v>65</v>
-      </c>
-      <c r="AR276">
-        <v>19.5</v>
-      </c>
-      <c r="AS276">
-        <v>34</v>
-      </c>
-      <c r="AT276">
-        <v>20</v>
       </c>
       <c r="AU276">
         <v>29</v>
       </c>
       <c r="AV276">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AW276">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AX276">
-        <v>6.6</v>
+        <v>80</v>
       </c>
       <c r="AY276">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AZ276">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA276">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB276">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BC276">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BD276">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="BE276">
         <v>1000</v>
@@ -57100,157 +57070,157 @@
         <v>753</v>
       </c>
       <c r="F277">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="G277">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H277">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I277">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J277">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K277">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L277">
+        <v>1.94</v>
+      </c>
+      <c r="M277">
+        <v>2.08</v>
+      </c>
+      <c r="N277">
+        <v>1.93</v>
+      </c>
+      <c r="O277">
+        <v>2.06</v>
+      </c>
+      <c r="P277">
+        <v>1.66</v>
+      </c>
+      <c r="Q277">
+        <v>1.95</v>
+      </c>
+      <c r="R277">
+        <v>2.06</v>
+      </c>
+      <c r="S277">
+        <v>3.15</v>
+      </c>
+      <c r="T277">
+        <v>11</v>
+      </c>
+      <c r="U277">
+        <v>16.5</v>
+      </c>
+      <c r="V277">
+        <v>9.6</v>
+      </c>
+      <c r="W277">
+        <v>11.5</v>
+      </c>
+      <c r="X277">
+        <v>1.74</v>
+      </c>
+      <c r="Y277">
+        <v>19.5</v>
+      </c>
+      <c r="Z277">
+        <v>1.51</v>
+      </c>
+      <c r="AA277">
+        <v>1000</v>
+      </c>
+      <c r="AB277">
+        <v>1.69</v>
+      </c>
+      <c r="AC277">
+        <v>14.5</v>
+      </c>
+      <c r="AD277">
+        <v>6.6</v>
+      </c>
+      <c r="AE277">
+        <v>8.4</v>
+      </c>
+      <c r="AF277">
+        <v>9.6</v>
+      </c>
+      <c r="AG277">
+        <v>14</v>
+      </c>
+      <c r="AH277">
+        <v>1.51</v>
+      </c>
+      <c r="AI277">
+        <v>1000</v>
+      </c>
+      <c r="AJ277">
+        <v>1.77</v>
+      </c>
+      <c r="AK277">
+        <v>24</v>
+      </c>
+      <c r="AL277">
+        <v>1.7</v>
+      </c>
+      <c r="AM277">
+        <v>15.5</v>
+      </c>
+      <c r="AN277">
+        <v>1.75</v>
+      </c>
+      <c r="AO277">
+        <v>21</v>
+      </c>
+      <c r="AP277">
         <v>1.91</v>
       </c>
-      <c r="M277">
-        <v>2.14</v>
-      </c>
-      <c r="N277">
-        <v>1.88</v>
-      </c>
-      <c r="O277">
-        <v>2.1</v>
-      </c>
-      <c r="P277">
-        <v>1.61</v>
-      </c>
-      <c r="Q277">
-        <v>2.04</v>
-      </c>
-      <c r="R277">
-        <v>1.96</v>
-      </c>
-      <c r="S277">
-        <v>2.64</v>
-      </c>
-      <c r="T277">
-        <v>10.5</v>
-      </c>
-      <c r="U277">
-        <v>17.5</v>
-      </c>
-      <c r="V277">
-        <v>8.4</v>
-      </c>
-      <c r="W277">
-        <v>14</v>
-      </c>
-      <c r="X277">
-        <v>12.5</v>
-      </c>
-      <c r="Y277">
-        <v>21</v>
-      </c>
-      <c r="Z277">
-        <v>26</v>
-      </c>
-      <c r="AA277">
-        <v>46</v>
-      </c>
-      <c r="AB277">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC277">
-        <v>15</v>
-      </c>
-      <c r="AD277">
-        <v>7.2</v>
-      </c>
-      <c r="AE277">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF277">
-        <v>9</v>
-      </c>
-      <c r="AG277">
-        <v>15</v>
-      </c>
-      <c r="AH277">
-        <v>20</v>
-      </c>
-      <c r="AI277">
-        <v>34</v>
-      </c>
-      <c r="AJ277">
-        <v>14.5</v>
-      </c>
-      <c r="AK277">
-        <v>25</v>
-      </c>
-      <c r="AL277">
-        <v>9.6</v>
-      </c>
-      <c r="AM277">
-        <v>16</v>
-      </c>
-      <c r="AN277">
-        <v>13</v>
-      </c>
-      <c r="AO277">
-        <v>22</v>
-      </c>
-      <c r="AP277">
-        <v>29</v>
-      </c>
       <c r="AQ277">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AR277">
+        <v>1.12</v>
+      </c>
+      <c r="AS277">
+        <v>1000</v>
+      </c>
+      <c r="AT277">
+        <v>1.12</v>
+      </c>
+      <c r="AU277">
+        <v>1000</v>
+      </c>
+      <c r="AV277">
+        <v>1.12</v>
+      </c>
+      <c r="AW277">
+        <v>1000</v>
+      </c>
+      <c r="AX277">
+        <v>1.51</v>
+      </c>
+      <c r="AY277">
+        <v>1000</v>
+      </c>
+      <c r="AZ277">
+        <v>1.15</v>
+      </c>
+      <c r="BA277">
         <v>32</v>
       </c>
-      <c r="AS277">
-        <v>60</v>
-      </c>
-      <c r="AT277">
-        <v>23</v>
-      </c>
-      <c r="AU277">
-        <v>40</v>
-      </c>
-      <c r="AV277">
-        <v>30</v>
-      </c>
-      <c r="AW277">
-        <v>55</v>
-      </c>
-      <c r="AX277">
-        <v>65</v>
-      </c>
-      <c r="AY277">
-        <v>120</v>
-      </c>
-      <c r="AZ277">
-        <v>1.01</v>
-      </c>
-      <c r="BA277">
-        <v>34</v>
-      </c>
       <c r="BB277">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="BC277">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD277">
-        <v>22</v>
+        <v>1.27</v>
       </c>
       <c r="BE277">
         <v>1000</v>
@@ -57297,157 +57267,157 @@
         <v>754</v>
       </c>
       <c r="F278">
+        <v>2.04</v>
+      </c>
+      <c r="G278">
         <v>2.1</v>
       </c>
-      <c r="G278">
-        <v>2.3</v>
-      </c>
       <c r="H278">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I278">
         <v>4.7</v>
       </c>
       <c r="J278">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K278">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L278">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="M278">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="O278">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="P278">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="Q278">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="S278">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="T278">
-        <v>8.4</v>
+        <v>1.36</v>
       </c>
       <c r="U278">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="V278">
-        <v>10</v>
+        <v>2.46</v>
       </c>
       <c r="W278">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="X278">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z278">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AA278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB278">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC278">
+        <v>980</v>
+      </c>
+      <c r="AD278">
+        <v>3.7</v>
+      </c>
+      <c r="AE278">
+        <v>980</v>
+      </c>
+      <c r="AF278">
+        <v>4.6</v>
+      </c>
+      <c r="AG278">
+        <v>980</v>
+      </c>
+      <c r="AH278">
+        <v>6</v>
+      </c>
+      <c r="AI278">
+        <v>1000</v>
+      </c>
+      <c r="AJ278">
+        <v>2.76</v>
+      </c>
+      <c r="AK278">
+        <v>1000</v>
+      </c>
+      <c r="AL278">
+        <v>3.4</v>
+      </c>
+      <c r="AM278">
+        <v>980</v>
+      </c>
+      <c r="AN278">
+        <v>4.7</v>
+      </c>
+      <c r="AO278">
+        <v>980</v>
+      </c>
+      <c r="AP278">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD278">
-        <v>6.4</v>
-      </c>
-      <c r="AE278">
-        <v>9.4</v>
-      </c>
-      <c r="AF278">
-        <v>3.6</v>
-      </c>
-      <c r="AG278">
-        <v>980</v>
-      </c>
-      <c r="AH278">
-        <v>4.1</v>
-      </c>
-      <c r="AI278">
-        <v>980</v>
-      </c>
-      <c r="AJ278">
-        <v>3.35</v>
-      </c>
-      <c r="AK278">
-        <v>15</v>
-      </c>
-      <c r="AL278">
-        <v>3.3</v>
-      </c>
-      <c r="AM278">
-        <v>14</v>
-      </c>
-      <c r="AN278">
-        <v>3.75</v>
-      </c>
-      <c r="AO278">
-        <v>980</v>
-      </c>
-      <c r="AP278">
-        <v>4.1</v>
-      </c>
       <c r="AQ278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR278">
         <v>3.85</v>
       </c>
       <c r="AS278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT278">
-        <v>3.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV278">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX278">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="AY278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ278">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="BA278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB278">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="BC278">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD278">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="BE278">
         <v>1000</v>
@@ -57494,37 +57464,37 @@
         <v>755</v>
       </c>
       <c r="F279">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="G279">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H279">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I279">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J279">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K279">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L279">
         <v>2.38</v>
       </c>
       <c r="M279">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="N279">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O279">
         <v>1.73</v>
       </c>
       <c r="P279">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q279">
         <v>1.64</v>
@@ -57533,28 +57503,28 @@
         <v>2.58</v>
       </c>
       <c r="S279">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T279">
         <v>18</v>
       </c>
       <c r="U279">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V279">
+        <v>16</v>
+      </c>
+      <c r="W279">
         <v>17</v>
       </c>
-      <c r="W279">
-        <v>19</v>
-      </c>
       <c r="X279">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y279">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z279">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA279">
         <v>60</v>
@@ -57563,43 +57533,43 @@
         <v>12</v>
       </c>
       <c r="AC279">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD279">
         <v>8.4</v>
       </c>
       <c r="AE279">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF279">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG279">
         <v>14.5</v>
       </c>
       <c r="AH279">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI279">
         <v>34</v>
       </c>
       <c r="AJ279">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK279">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL279">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM279">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN279">
         <v>14</v>
       </c>
       <c r="AO279">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP279">
         <v>34</v>
@@ -57608,43 +57578,43 @@
         <v>38</v>
       </c>
       <c r="AR279">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS279">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT279">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU279">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AV279">
         <v>25</v>
       </c>
       <c r="AW279">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AX279">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY279">
         <v>65</v>
       </c>
       <c r="AZ279">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="BA279">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BB279">
         <v>21</v>
       </c>
       <c r="BC279">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD279">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE279">
         <v>980</v>
@@ -57691,163 +57661,163 @@
         <v>756</v>
       </c>
       <c r="F280">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="G280">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H280">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="I280">
         <v>1000</v>
       </c>
       <c r="J280">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="K280">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="L280">
         <v>3.1</v>
       </c>
       <c r="M280">
-        <v>55</v>
+        <v>3.8</v>
       </c>
       <c r="N280">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="O280">
         <v>1.47</v>
       </c>
       <c r="P280">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="Q280">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="R280">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="T280">
-        <v>1.49</v>
+        <v>1.85</v>
       </c>
       <c r="U280">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="V280">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="W280">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="X280">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="Y280">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="Z280">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="AA280">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB280">
-        <v>2.64</v>
+        <v>11</v>
       </c>
       <c r="AC280">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD280">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE280">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF280">
-        <v>5.9</v>
+        <v>1.83</v>
       </c>
       <c r="AG280">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH280">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="AI280">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ280">
-        <v>3.55</v>
+        <v>1.9</v>
       </c>
       <c r="AK280">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL280">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="AM280">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AN280">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AO280">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AP280">
-        <v>9.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="AQ280">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AR280">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="AS280">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AT280">
-        <v>8.800000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="AU280">
         <v>1000</v>
       </c>
       <c r="AV280">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AW280">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX280">
-        <v>16</v>
+        <v>1.9</v>
       </c>
       <c r="AY280">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AZ280">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="BA280">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="BB280">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="BC280">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="BD280">
-        <v>12.5</v>
+        <v>1.92</v>
       </c>
       <c r="BE280">
         <v>1000</v>
       </c>
-      <c r="BF280" t="s">
-        <v>769</v>
+      <c r="BF280">
+        <v>33150438</v>
       </c>
       <c r="BG280">
         <v>5885611</v>
@@ -57858,17 +57828,17 @@
       <c r="BI280">
         <v>58805</v>
       </c>
-      <c r="BJ280" t="s">
-        <v>771</v>
-      </c>
-      <c r="BK280" t="s">
-        <v>773</v>
-      </c>
-      <c r="BL280" t="s">
-        <v>775</v>
-      </c>
-      <c r="BM280" t="s">
-        <v>777</v>
+      <c r="BJ280">
+        <v>1.226858784</v>
+      </c>
+      <c r="BK280">
+        <v>1.226858829</v>
+      </c>
+      <c r="BL280">
+        <v>1.226858868</v>
+      </c>
+      <c r="BM280">
+        <v>1.226858793</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -57888,139 +57858,139 @@
         <v>757</v>
       </c>
       <c r="F281">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="G281">
-        <v>18</v>
+        <v>4.3</v>
       </c>
       <c r="H281">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I281">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J281">
         <v>2.76</v>
       </c>
       <c r="K281">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="L281">
         <v>1.27</v>
       </c>
       <c r="M281">
-        <v>18</v>
+        <v>1.69</v>
       </c>
       <c r="N281">
-        <v>1.06</v>
+        <v>2.44</v>
       </c>
       <c r="O281">
         <v>4.6</v>
       </c>
       <c r="P281">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="Q281">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="R281">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="S281">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="U281">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V281">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="W281">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="X281">
-        <v>2.9</v>
+        <v>1.03</v>
       </c>
       <c r="Y281">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z281">
-        <v>2.98</v>
+        <v>1.03</v>
       </c>
       <c r="AA281">
         <v>1000</v>
       </c>
       <c r="AB281">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="AC281">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD281">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="AE281">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AF281">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="AG281">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH281">
-        <v>4.2</v>
+        <v>1.03</v>
       </c>
       <c r="AI281">
         <v>1000</v>
       </c>
       <c r="AJ281">
-        <v>2.86</v>
+        <v>1.03</v>
       </c>
       <c r="AK281">
         <v>1000</v>
       </c>
       <c r="AL281">
-        <v>4.7</v>
+        <v>1.03</v>
       </c>
       <c r="AM281">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AN281">
-        <v>5.2</v>
+        <v>1.03</v>
       </c>
       <c r="AO281">
         <v>1000</v>
       </c>
       <c r="AP281">
-        <v>6.2</v>
+        <v>1.03</v>
       </c>
       <c r="AQ281">
         <v>1000</v>
       </c>
       <c r="AR281">
-        <v>4.3</v>
+        <v>1.03</v>
       </c>
       <c r="AS281">
         <v>1000</v>
       </c>
       <c r="AT281">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
       <c r="AU281">
         <v>1000</v>
       </c>
       <c r="AV281">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="AW281">
         <v>1000</v>
       </c>
       <c r="AX281">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AY281">
         <v>1000</v>
@@ -58038,7 +58008,7 @@
         <v>1000</v>
       </c>
       <c r="BD281">
-        <v>14.5</v>
+        <v>1.03</v>
       </c>
       <c r="BE281">
         <v>1000</v>
@@ -58085,52 +58055,52 @@
         <v>758</v>
       </c>
       <c r="F282">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="G282">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="H282">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I282">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J282">
         <v>3.4</v>
       </c>
       <c r="K282">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L282">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="M282">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="N282">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="O282">
         <v>2.12</v>
       </c>
       <c r="P282">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q282">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R282">
         <v>2.16</v>
       </c>
       <c r="S282">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="T282">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="U282">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V282">
         <v>11.5</v>
@@ -58139,22 +58109,22 @@
         <v>12.5</v>
       </c>
       <c r="X282">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y282">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z282">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA282">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB282">
+        <v>9.4</v>
+      </c>
+      <c r="AC282">
         <v>10.5</v>
-      </c>
-      <c r="AC282">
-        <v>12</v>
       </c>
       <c r="AD282">
         <v>7.2</v>
@@ -58163,82 +58133,82 @@
         <v>7.8</v>
       </c>
       <c r="AF282">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG282">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH282">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AI282">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ282">
+        <v>13.5</v>
+      </c>
+      <c r="AK282">
         <v>15.5</v>
       </c>
-      <c r="AK282">
-        <v>18</v>
-      </c>
       <c r="AL282">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM282">
         <v>12</v>
       </c>
       <c r="AN282">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO282">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP282">
+        <v>42</v>
+      </c>
+      <c r="AQ282">
+        <v>50</v>
+      </c>
+      <c r="AR282">
+        <v>30</v>
+      </c>
+      <c r="AS282">
         <v>34</v>
-      </c>
-      <c r="AQ282">
-        <v>42</v>
-      </c>
-      <c r="AR282">
-        <v>34</v>
-      </c>
-      <c r="AS282">
-        <v>40</v>
       </c>
       <c r="AT282">
         <v>24</v>
       </c>
       <c r="AU282">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV282">
+        <v>36</v>
+      </c>
+      <c r="AW282">
+        <v>42</v>
+      </c>
+      <c r="AX282">
+        <v>80</v>
+      </c>
+      <c r="AY282">
+        <v>100</v>
+      </c>
+      <c r="AZ282">
+        <v>17.5</v>
+      </c>
+      <c r="BA282">
+        <v>22</v>
+      </c>
+      <c r="BB282">
+        <v>30</v>
+      </c>
+      <c r="BC282">
         <v>34</v>
       </c>
-      <c r="AW282">
-        <v>40</v>
-      </c>
-      <c r="AX282">
-        <v>36</v>
-      </c>
-      <c r="AY282">
-        <v>85</v>
-      </c>
-      <c r="AZ282">
-        <v>18.5</v>
-      </c>
-      <c r="BA282">
-        <v>23</v>
-      </c>
-      <c r="BB282">
-        <v>21</v>
-      </c>
-      <c r="BC282">
-        <v>27</v>
-      </c>
       <c r="BD282">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BE282">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BF282">
         <v>33134920</v>
@@ -58282,70 +58252,70 @@
         <v>759</v>
       </c>
       <c r="F283">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G283">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H283">
+        <v>2.14</v>
+      </c>
+      <c r="I283">
         <v>2.16</v>
       </c>
-      <c r="I283">
-        <v>2.22</v>
-      </c>
       <c r="J283">
+        <v>3.65</v>
+      </c>
+      <c r="K283">
         <v>3.75</v>
       </c>
-      <c r="K283">
-        <v>3.85</v>
-      </c>
       <c r="L283">
+        <v>1.95</v>
+      </c>
+      <c r="M283">
+        <v>1.98</v>
+      </c>
+      <c r="N283">
         <v>2.02</v>
       </c>
-      <c r="M283">
-        <v>2.08</v>
-      </c>
-      <c r="N283">
-        <v>1.94</v>
-      </c>
       <c r="O283">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="P283">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q283">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R283">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S283">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T283">
+        <v>12.5</v>
+      </c>
+      <c r="U283">
         <v>13</v>
-      </c>
-      <c r="U283">
-        <v>14</v>
       </c>
       <c r="V283">
         <v>9.199999999999999</v>
       </c>
       <c r="W283">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="X283">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y283">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA283">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB283">
         <v>13</v>
@@ -58354,10 +58324,10 @@
         <v>14.5</v>
       </c>
       <c r="AD283">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE283">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF283">
         <v>10</v>
@@ -58366,73 +58336,73 @@
         <v>11</v>
       </c>
       <c r="AH283">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI283">
         <v>22</v>
       </c>
       <c r="AJ283">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK283">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL283">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM283">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN283">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO283">
         <v>18</v>
       </c>
       <c r="AP283">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ283">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AR283">
+        <v>60</v>
+      </c>
+      <c r="AS283">
+        <v>75</v>
+      </c>
+      <c r="AT283">
+        <v>42</v>
+      </c>
+      <c r="AU283">
         <v>46</v>
       </c>
-      <c r="AS283">
-        <v>65</v>
-      </c>
-      <c r="AT283">
-        <v>36</v>
-      </c>
-      <c r="AU283">
-        <v>42</v>
-      </c>
       <c r="AV283">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AW283">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX283">
+        <v>80</v>
+      </c>
+      <c r="AY283">
+        <v>100</v>
+      </c>
+      <c r="AZ283">
         <v>38</v>
       </c>
-      <c r="AY283">
-        <v>90</v>
-      </c>
-      <c r="AZ283">
-        <v>32</v>
-      </c>
       <c r="BA283">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="BB283">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC283">
         <v>16</v>
       </c>
       <c r="BD283">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BE283">
         <v>1000</v>
@@ -58479,157 +58449,157 @@
         <v>760</v>
       </c>
       <c r="F284">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G284">
         <v>1.99</v>
       </c>
       <c r="H284">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I284">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J284">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K284">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L284">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="M284">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="N284">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="O284">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="P284">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="Q284">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R284">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="S284">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="T284">
+        <v>9.6</v>
+      </c>
+      <c r="U284">
         <v>12</v>
       </c>
-      <c r="U284">
-        <v>15</v>
-      </c>
       <c r="V284">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="W284">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X284">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y284">
+        <v>38</v>
+      </c>
+      <c r="Z284">
         <v>40</v>
       </c>
-      <c r="Z284">
-        <v>4.9</v>
-      </c>
       <c r="AA284">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AB284">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC284">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD284">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AE284">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF284">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG284">
         <v>22</v>
       </c>
       <c r="AH284">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI284">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ284">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK284">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL284">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM284">
         <v>12</v>
       </c>
       <c r="AN284">
+        <v>19.5</v>
+      </c>
+      <c r="AO284">
+        <v>24</v>
+      </c>
+      <c r="AP284">
+        <v>65</v>
+      </c>
+      <c r="AQ284">
+        <v>95</v>
+      </c>
+      <c r="AR284">
+        <v>19.5</v>
+      </c>
+      <c r="AS284">
+        <v>23</v>
+      </c>
+      <c r="AT284">
+        <v>19.5</v>
+      </c>
+      <c r="AU284">
+        <v>24</v>
+      </c>
+      <c r="AV284">
+        <v>36</v>
+      </c>
+      <c r="AW284">
+        <v>50</v>
+      </c>
+      <c r="AX284">
+        <v>42</v>
+      </c>
+      <c r="AY284">
+        <v>160</v>
+      </c>
+      <c r="AZ284">
+        <v>12.5</v>
+      </c>
+      <c r="BA284">
         <v>17.5</v>
       </c>
-      <c r="AO284">
-        <v>25</v>
-      </c>
-      <c r="AP284">
-        <v>32</v>
-      </c>
-      <c r="AQ284">
-        <v>75</v>
-      </c>
-      <c r="AR284">
-        <v>18.5</v>
-      </c>
-      <c r="AS284">
-        <v>27</v>
-      </c>
-      <c r="AT284">
-        <v>17</v>
-      </c>
-      <c r="AU284">
-        <v>26</v>
-      </c>
-      <c r="AV284">
-        <v>32</v>
-      </c>
-      <c r="AW284">
-        <v>48</v>
-      </c>
-      <c r="AX284">
-        <v>5</v>
-      </c>
-      <c r="AY284">
-        <v>150</v>
-      </c>
-      <c r="AZ284">
-        <v>10.5</v>
-      </c>
-      <c r="BA284">
-        <v>17</v>
-      </c>
       <c r="BB284">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="BC284">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BD284">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="BE284">
         <v>1000</v>
@@ -58676,157 +58646,157 @@
         <v>761</v>
       </c>
       <c r="F285">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="G285">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H285">
         <v>4.7</v>
       </c>
       <c r="I285">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="J285">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K285">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L285">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="M285">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="N285">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="O285">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="P285">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="Q285">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="R285">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="S285">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="T285">
+        <v>11.5</v>
+      </c>
+      <c r="U285">
+        <v>14.5</v>
+      </c>
+      <c r="V285">
         <v>10.5</v>
       </c>
-      <c r="U285">
-        <v>18</v>
-      </c>
-      <c r="V285">
-        <v>12.5</v>
-      </c>
       <c r="W285">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="X285">
         <v>27</v>
       </c>
       <c r="Y285">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z285">
-        <v>80</v>
+        <v>3.05</v>
       </c>
       <c r="AA285">
         <v>150</v>
       </c>
       <c r="AB285">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AC285">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD285">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE285">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF285">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG285">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH285">
-        <v>46</v>
+        <v>4.4</v>
       </c>
       <c r="AI285">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ285">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AK285">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AL285">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AM285">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN285">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO285">
+        <v>29</v>
+      </c>
+      <c r="AP285">
+        <v>4.5</v>
+      </c>
+      <c r="AQ285">
+        <v>150</v>
+      </c>
+      <c r="AR285">
+        <v>17</v>
+      </c>
+      <c r="AS285">
         <v>26</v>
       </c>
-      <c r="AP285">
-        <v>50</v>
-      </c>
-      <c r="AQ285">
-        <v>90</v>
-      </c>
-      <c r="AR285">
-        <v>14</v>
-      </c>
-      <c r="AS285">
-        <v>23</v>
-      </c>
       <c r="AT285">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU285">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AV285">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW285">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AX285">
-        <v>80</v>
+        <v>3.1</v>
       </c>
       <c r="AY285">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AZ285">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="BA285">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="BB285">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="BC285">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="BD285">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="BE285">
         <v>1000</v>
@@ -58873,160 +58843,160 @@
         <v>762</v>
       </c>
       <c r="F286">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G286">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="H286">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="I286">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J286">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K286">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L286">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="M286">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
+        <v>1.59</v>
+      </c>
+      <c r="O286">
+        <v>1.67</v>
+      </c>
+      <c r="P286">
         <v>1.53</v>
       </c>
-      <c r="O286">
-        <v>1.74</v>
-      </c>
-      <c r="P286">
-        <v>1.5</v>
-      </c>
       <c r="Q286">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="R286">
-        <v>2.3</v>
+        <v>1.12</v>
       </c>
       <c r="S286">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T286">
         <v>16.5</v>
       </c>
       <c r="U286">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V286">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W286">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X286">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y286">
         <v>29</v>
       </c>
       <c r="Z286">
-        <v>32</v>
+        <v>1.19</v>
       </c>
       <c r="AA286">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB286">
         <v>11</v>
       </c>
       <c r="AC286">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD286">
         <v>7.2</v>
       </c>
       <c r="AE286">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF286">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG286">
         <v>16</v>
       </c>
       <c r="AH286">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI286">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ286">
         <v>13.5</v>
       </c>
       <c r="AK286">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL286">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AM286">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN286">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO286">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP286">
-        <v>23</v>
+        <v>1.19</v>
       </c>
       <c r="AQ286">
+        <v>1000</v>
+      </c>
+      <c r="AR286">
+        <v>1.16</v>
+      </c>
+      <c r="AS286">
         <v>40</v>
       </c>
-      <c r="AR286">
-        <v>24</v>
-      </c>
-      <c r="AS286">
-        <v>42</v>
-      </c>
       <c r="AT286">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU286">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV286">
-        <v>21</v>
+        <v>3.2</v>
       </c>
       <c r="AW286">
         <v>36</v>
       </c>
       <c r="AX286">
-        <v>42</v>
+        <v>1.73</v>
       </c>
       <c r="AY286">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AZ286">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="BA286">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB286">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="BC286">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD286">
-        <v>48</v>
+        <v>1.19</v>
       </c>
       <c r="BE286">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="BF286">
         <v>33117473</v>
@@ -59070,157 +59040,157 @@
         <v>763</v>
       </c>
       <c r="F287">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="G287">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I287">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="J287">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K287">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L287">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="M287">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N287">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="O287">
-        <v>2.64</v>
+        <v>4.6</v>
       </c>
       <c r="P287">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="Q287">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="R287">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="S287">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="T287">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="U287">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="V287">
-        <v>6.6</v>
+        <v>1.13</v>
       </c>
       <c r="W287">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="X287">
-        <v>10</v>
+        <v>1.13</v>
       </c>
       <c r="Y287">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AA287">
         <v>1000</v>
       </c>
       <c r="AB287">
-        <v>10</v>
+        <v>1.13</v>
       </c>
       <c r="AC287">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AD287">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE287">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AF287">
-        <v>9.199999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AG287">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH287">
-        <v>21</v>
+        <v>1.13</v>
       </c>
       <c r="AI287">
         <v>1000</v>
       </c>
       <c r="AJ287">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="AK287">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL287">
-        <v>14</v>
+        <v>1.13</v>
       </c>
       <c r="AM287">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AN287">
-        <v>17.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO287">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AQ287">
         <v>1000</v>
       </c>
       <c r="AR287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS287">
         <v>1000</v>
       </c>
       <c r="AT287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AU287">
         <v>1000</v>
       </c>
       <c r="AV287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AW287">
         <v>1000</v>
       </c>
       <c r="AX287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AY287">
         <v>1000</v>
       </c>
       <c r="AZ287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="BA287">
         <v>1000</v>
       </c>
       <c r="BB287">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="BC287">
         <v>1000</v>
       </c>
       <c r="BD287">
-        <v>48</v>
+        <v>1.13</v>
       </c>
       <c r="BE287">
         <v>1000</v>
@@ -59267,16 +59237,16 @@
         <v>764</v>
       </c>
       <c r="F288">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G288">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H288">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I288">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J288">
         <v>3.1</v>
@@ -59285,139 +59255,139 @@
         <v>3.45</v>
       </c>
       <c r="L288">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M288">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="N288">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="O288">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="P288">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="Q288">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R288">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="S288">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T288">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="U288">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="V288">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="W288">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="X288">
-        <v>26</v>
+        <v>1.38</v>
       </c>
       <c r="Y288">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z288">
-        <v>90</v>
+        <v>1.38</v>
       </c>
       <c r="AA288">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB288">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="AC288">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD288">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE288">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AF288">
-        <v>17</v>
+        <v>1.1</v>
       </c>
       <c r="AG288">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH288">
-        <v>60</v>
+        <v>1.38</v>
       </c>
       <c r="AI288">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ288">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AK288">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL288">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="AM288">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AN288">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="AO288">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AP288">
-        <v>85</v>
+        <v>1.38</v>
       </c>
       <c r="AQ288">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AR288">
-        <v>23</v>
+        <v>1.38</v>
       </c>
       <c r="AS288">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AT288">
-        <v>24</v>
+        <v>1.1</v>
       </c>
       <c r="AU288">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AV288">
-        <v>50</v>
+        <v>1.38</v>
       </c>
       <c r="AW288">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AX288">
-        <v>8.199999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AY288">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AZ288">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA288">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="BB288">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BC288">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="BD288">
-        <v>13.5</v>
+        <v>1.1</v>
       </c>
       <c r="BE288">
         <v>1000</v>
@@ -59464,70 +59434,70 @@
         <v>765</v>
       </c>
       <c r="F289">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G289">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="H289">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I289">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J289">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K289">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L289">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="M289">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="N289">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O289">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="P289">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q289">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R289">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S289">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T289">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U289">
+        <v>21</v>
+      </c>
+      <c r="V289">
         <v>20</v>
       </c>
-      <c r="V289">
-        <v>18.5</v>
-      </c>
       <c r="W289">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X289">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y289">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z289">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA289">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB289">
         <v>10.5</v>
@@ -59536,58 +59506,58 @@
         <v>11.5</v>
       </c>
       <c r="AD289">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE289">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AF289">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG289">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH289">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI289">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ289">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK289">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL289">
         <v>9.4</v>
       </c>
       <c r="AM289">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AN289">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO289">
         <v>17.5</v>
       </c>
       <c r="AP289">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AQ289">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR289">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS289">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AT289">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU289">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV289">
         <v>25</v>
@@ -59596,25 +59566,25 @@
         <v>28</v>
       </c>
       <c r="AX289">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AY289">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AZ289">
+        <v>7.2</v>
+      </c>
+      <c r="BA289">
         <v>8.199999999999999</v>
       </c>
-      <c r="BA289">
-        <v>9</v>
-      </c>
       <c r="BB289">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="BC289">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="BD289">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BE289">
         <v>980</v>
@@ -59661,58 +59631,58 @@
         <v>766</v>
       </c>
       <c r="F290">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G290">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="H290">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I290">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J290">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K290">
         <v>4.2</v>
       </c>
       <c r="L290">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="M290">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="N290">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="O290">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="P290">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="Q290">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="R290">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="S290">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="T290">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U290">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="V290">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="W290">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X290">
         <v>28</v>
@@ -59721,100 +59691,100 @@
         <v>32</v>
       </c>
       <c r="Z290">
+        <v>60</v>
+      </c>
+      <c r="AA290">
+        <v>70</v>
+      </c>
+      <c r="AB290">
+        <v>12</v>
+      </c>
+      <c r="AC290">
+        <v>14</v>
+      </c>
+      <c r="AD290">
+        <v>9</v>
+      </c>
+      <c r="AE290">
+        <v>9.6</v>
+      </c>
+      <c r="AF290">
+        <v>14.5</v>
+      </c>
+      <c r="AG290">
+        <v>15.5</v>
+      </c>
+      <c r="AH290">
         <v>34</v>
       </c>
-      <c r="AA290">
-        <v>95</v>
-      </c>
-      <c r="AB290">
-        <v>10</v>
-      </c>
-      <c r="AC290">
-        <v>11.5</v>
-      </c>
-      <c r="AD290">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE290">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF290">
+      <c r="AI290">
+        <v>38</v>
+      </c>
+      <c r="AJ290">
+        <v>13.5</v>
+      </c>
+      <c r="AK290">
         <v>15</v>
       </c>
-      <c r="AG290">
-        <v>16</v>
-      </c>
-      <c r="AH290">
-        <v>38</v>
-      </c>
-      <c r="AI290">
-        <v>44</v>
-      </c>
-      <c r="AJ290">
-        <v>12</v>
-      </c>
-      <c r="AK290">
-        <v>13</v>
-      </c>
       <c r="AL290">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM290">
         <v>10.5</v>
       </c>
       <c r="AN290">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO290">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP290">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AQ290">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AR290">
+        <v>22</v>
+      </c>
+      <c r="AS290">
+        <v>24</v>
+      </c>
+      <c r="AT290">
+        <v>16.5</v>
+      </c>
+      <c r="AU290">
+        <v>18</v>
+      </c>
+      <c r="AV290">
+        <v>23</v>
+      </c>
+      <c r="AW290">
+        <v>27</v>
+      </c>
+      <c r="AX290">
+        <v>55</v>
+      </c>
+      <c r="AY290">
+        <v>65</v>
+      </c>
+      <c r="AZ290">
+        <v>8.6</v>
+      </c>
+      <c r="BA290">
+        <v>9.4</v>
+      </c>
+      <c r="BB290">
+        <v>24</v>
+      </c>
+      <c r="BC290">
+        <v>26</v>
+      </c>
+      <c r="BD290">
         <v>20</v>
       </c>
-      <c r="AS290">
-        <v>23</v>
-      </c>
-      <c r="AT290">
-        <v>17</v>
-      </c>
-      <c r="AU290">
-        <v>19</v>
-      </c>
-      <c r="AV290">
-        <v>26</v>
-      </c>
-      <c r="AW290">
-        <v>32</v>
-      </c>
-      <c r="AX290">
-        <v>34</v>
-      </c>
-      <c r="AY290">
-        <v>85</v>
-      </c>
-      <c r="AZ290">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BA290">
-        <v>11.5</v>
-      </c>
-      <c r="BB290">
-        <v>27</v>
-      </c>
-      <c r="BC290">
-        <v>38</v>
-      </c>
-      <c r="BD290">
-        <v>16.5</v>
-      </c>
       <c r="BE290">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="BF290">
         <v>33135130</v>
@@ -59858,157 +59828,157 @@
         <v>767</v>
       </c>
       <c r="F291">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="G291">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="H291">
+        <v>3.6</v>
+      </c>
+      <c r="I291">
         <v>3.7</v>
       </c>
-      <c r="I291">
+      <c r="J291">
+        <v>3.75</v>
+      </c>
+      <c r="K291">
         <v>4</v>
       </c>
-      <c r="J291">
-        <v>3.85</v>
-      </c>
-      <c r="K291">
-        <v>4.2</v>
-      </c>
       <c r="L291">
+        <v>2.14</v>
+      </c>
+      <c r="M291">
         <v>2.26</v>
       </c>
-      <c r="M291">
-        <v>2.42</v>
-      </c>
       <c r="N291">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="O291">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="P291">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q291">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R291">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="S291">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T291">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="U291">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V291">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W291">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X291">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y291">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Z291">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA291">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB291">
         <v>10.5</v>
       </c>
       <c r="AC291">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD291">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE291">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF291">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG291">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH291">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AI291">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ291">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK291">
         <v>14.5</v>
       </c>
       <c r="AL291">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM291">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN291">
         <v>15</v>
       </c>
       <c r="AO291">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP291">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AQ291">
+        <v>46</v>
+      </c>
+      <c r="AR291">
+        <v>24</v>
+      </c>
+      <c r="AS291">
+        <v>26</v>
+      </c>
+      <c r="AT291">
+        <v>18.5</v>
+      </c>
+      <c r="AU291">
+        <v>21</v>
+      </c>
+      <c r="AV291">
+        <v>29</v>
+      </c>
+      <c r="AW291">
+        <v>30</v>
+      </c>
+      <c r="AX291">
         <v>55</v>
       </c>
-      <c r="AR291">
-        <v>21</v>
-      </c>
-      <c r="AS291">
-        <v>25</v>
-      </c>
-      <c r="AT291">
-        <v>17</v>
-      </c>
-      <c r="AU291">
-        <v>19.5</v>
-      </c>
-      <c r="AV291">
-        <v>24</v>
-      </c>
-      <c r="AW291">
-        <v>38</v>
-      </c>
-      <c r="AX291">
-        <v>32</v>
-      </c>
       <c r="AY291">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AZ291">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="BA291">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BB291">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BC291">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BD291">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BE291">
         <v>980</v>
